--- a/biology/Botanique/Luffa_acutangula/Luffa_acutangula.xlsx
+++ b/biology/Botanique/Luffa_acutangula/Luffa_acutangula.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Luffa acutangula
 Luffa acutangula est une espèce de plantes à fleurs de la famille des Cucurbitaceae. Elle est cultivée en tant que légume, mais également comme éponge naturelle lorsqu'elle est mûre. Son fruit est proche du concombre ou de la courgette. On le retrouve dans le centre et l'est de l'Asie, ainsi qu'en Asie du Sud-Est. Cette espèce fait également office dans certains pays de plante d'intérieur.
@@ -512,9 +524,11 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les jeunes fruits sont utilisés comme légumes, particulièrement en Asie du Sud-Est[4], cuits, confits ou crus; les pousses et les fleurs peuvent également être utilisés[5]. Comme le Luffa aegyptica, les fruits murs durcissent en séchant. L'intérieur est vidé pour n'en laisser que la fibre et sert ainsi d'éponge ou de fibres pour la fabrication de chapeaux[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les jeunes fruits sont utilisés comme légumes, particulièrement en Asie du Sud-Est, cuits, confits ou crus; les pousses et les fleurs peuvent également être utilisés. Comme le Luffa aegyptica, les fruits murs durcissent en séchant. L'intérieur est vidé pour n'en laisser que la fibre et sert ainsi d'éponge ou de fibres pour la fabrication de chapeaux.
 </t>
         </is>
       </c>
@@ -543,14 +557,16 @@
           <t>Noms dans d'autres langues</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Assamais : জিকা (jeeka)[réf. nécessaire]
-Bengali : jhingge (ঝিঙে) ou jhinga (ঝিঙ্গা) [6],[7],[8]
+Bengali : jhingge (ঝিঙে) ou jhinga (ঝিঙ্গা) 
 Birman : ဗြူးဒါး [bjú dá]; ou ပုံလုံ [bòʊɴ lòʊɴ]
-Cantonais : 絲瓜 ou 勝瓜 sin qua ou sing kwa, Ling Jiao Si Gua, You Lin Si Gua, Sze Gwa, Sigwa[9],[10],
+Cantonais : 絲瓜 ou 勝瓜 sin qua ou sing kwa, Ling Jiao Si Gua, You Lin Si Gua, Sze Gwa, Sigwa
 Cingalais : වැටකොලු watakolu
-Fujian :  Kak kuey[9]
+Fujian :  Kak kuey
 Gujarati : તુરીયા turiya
 Hindi : तोरई, तुरई torai, turai
 Indonésien : gambas, oyong
